--- a/DateBase/orders/Dang Nguyen_2024-12-24.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-24.xlsx
@@ -523,6 +523,9 @@
       <c r="C11" t="str">
         <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F11" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -584,7 +587,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0161010452510860</v>
+        <v>01610104525108610</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-24.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-24.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -527,9 +527,89 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F12" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F13" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>9_茶色洋桔梗_Tea Color Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F14" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>10_波浪粉洋桔梗_Wavy Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F15" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F16" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+      <c r="F17" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
+      </c>
+      <c r="F18" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F19" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>3</v>
+      </c>
+      <c r="C20" t="str">
+        <v>648_洋牡丹河内_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F20" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -587,7 +667,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01610104525108610</v>
+        <v>01610104525108610610661010510100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-24.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-24.xlsx
@@ -606,6 +606,9 @@
       <c r="C21" t="str">
         <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -667,7 +670,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01610104525108610610661010510100</v>
+        <v>016101045251086106106610105101010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-24.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-24.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -610,9 +610,41 @@
         <v>10</v>
       </c>
     </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>591_洋牡丹黑_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>589_洋牡丹香槟_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F24" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L25"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -670,7 +702,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>016101045251086106106610105101010</v>
+        <v>0161010452510861061066101051010109201020</v>
       </c>
     </row>
   </sheetData>
